--- a/file.xlsx
+++ b/file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z042641\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z042641\commit_update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD2A175-C7C2-40AD-8296-71E06BFEFD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6723321D-93A6-4135-8C7B-CF976ECB3AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF6996D1-78D8-4C60-9709-C7F685D51DC3}"/>
   </bookViews>
@@ -33,6 +33,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Commit Message</t>
+  </si>
+  <si>
+    <t>Commit Author</t>
+  </si>
+  <si>
+    <t>Commit Date</t>
+  </si>
+  <si>
+    <t>Commit SHA</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +400,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0115CBA-7112-46E7-A758-E8B3FF04ECF1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 Confidential C</oddFooter>
